--- a/id_campo.xlsx
+++ b/id_campo.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$109</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="251">
   <si>
     <t>CAMPO</t>
   </si>
@@ -477,6 +477,309 @@
   </si>
   <si>
     <t>CAÑO LIMON</t>
+  </si>
+  <si>
+    <t>IDBDP</t>
+  </si>
+  <si>
+    <t>101929</t>
+  </si>
+  <si>
+    <t>103591</t>
+  </si>
+  <si>
+    <t>111383</t>
+  </si>
+  <si>
+    <t>115587</t>
+  </si>
+  <si>
+    <t>117455</t>
+  </si>
+  <si>
+    <t>127848</t>
+  </si>
+  <si>
+    <t>134362</t>
+  </si>
+  <si>
+    <t>134363</t>
+  </si>
+  <si>
+    <t>134656</t>
+  </si>
+  <si>
+    <t>141964</t>
+  </si>
+  <si>
+    <t>38679</t>
+  </si>
+  <si>
+    <t>38680</t>
+  </si>
+  <si>
+    <t>38681</t>
+  </si>
+  <si>
+    <t>38720</t>
+  </si>
+  <si>
+    <t>38721</t>
+  </si>
+  <si>
+    <t>38722</t>
+  </si>
+  <si>
+    <t>38723</t>
+  </si>
+  <si>
+    <t>38724</t>
+  </si>
+  <si>
+    <t>38725</t>
+  </si>
+  <si>
+    <t>38726</t>
+  </si>
+  <si>
+    <t>38727</t>
+  </si>
+  <si>
+    <t>38728</t>
+  </si>
+  <si>
+    <t>38741</t>
+  </si>
+  <si>
+    <t>38743</t>
+  </si>
+  <si>
+    <t>38744</t>
+  </si>
+  <si>
+    <t>38745</t>
+  </si>
+  <si>
+    <t>38746</t>
+  </si>
+  <si>
+    <t>38747</t>
+  </si>
+  <si>
+    <t>38748</t>
+  </si>
+  <si>
+    <t>38749</t>
+  </si>
+  <si>
+    <t>38750</t>
+  </si>
+  <si>
+    <t>38762</t>
+  </si>
+  <si>
+    <t>38763</t>
+  </si>
+  <si>
+    <t>39356</t>
+  </si>
+  <si>
+    <t>39389</t>
+  </si>
+  <si>
+    <t>39448</t>
+  </si>
+  <si>
+    <t>39737</t>
+  </si>
+  <si>
+    <t>39738</t>
+  </si>
+  <si>
+    <t>40187</t>
+  </si>
+  <si>
+    <t>40188</t>
+  </si>
+  <si>
+    <t>40659</t>
+  </si>
+  <si>
+    <t>44670</t>
+  </si>
+  <si>
+    <t>47045</t>
+  </si>
+  <si>
+    <t>47046</t>
+  </si>
+  <si>
+    <t>47239</t>
+  </si>
+  <si>
+    <t>77229</t>
+  </si>
+  <si>
+    <t>77246</t>
+  </si>
+  <si>
+    <t>78505</t>
+  </si>
+  <si>
+    <t>78811</t>
+  </si>
+  <si>
+    <t>79811</t>
+  </si>
+  <si>
+    <t>144107</t>
+  </si>
+  <si>
+    <t>108378</t>
+  </si>
+  <si>
+    <t>109142</t>
+  </si>
+  <si>
+    <t>112481</t>
+  </si>
+  <si>
+    <t>118689</t>
+  </si>
+  <si>
+    <t>120589</t>
+  </si>
+  <si>
+    <t>129104</t>
+  </si>
+  <si>
+    <t>134876</t>
+  </si>
+  <si>
+    <t>137161</t>
+  </si>
+  <si>
+    <t>137162</t>
+  </si>
+  <si>
+    <t>139434</t>
+  </si>
+  <si>
+    <t>140235</t>
+  </si>
+  <si>
+    <t>38708</t>
+  </si>
+  <si>
+    <t>38733</t>
+  </si>
+  <si>
+    <t>38757</t>
+  </si>
+  <si>
+    <t>39386</t>
+  </si>
+  <si>
+    <t>39387</t>
+  </si>
+  <si>
+    <t>39397</t>
+  </si>
+  <si>
+    <t>39398</t>
+  </si>
+  <si>
+    <t>39399</t>
+  </si>
+  <si>
+    <t>39732</t>
+  </si>
+  <si>
+    <t>45589</t>
+  </si>
+  <si>
+    <t>45591</t>
+  </si>
+  <si>
+    <t>45592</t>
+  </si>
+  <si>
+    <t>47176</t>
+  </si>
+  <si>
+    <t>47240</t>
+  </si>
+  <si>
+    <t>50171</t>
+  </si>
+  <si>
+    <t>77227</t>
+  </si>
+  <si>
+    <t>77749</t>
+  </si>
+  <si>
+    <t>77755</t>
+  </si>
+  <si>
+    <t>77828</t>
+  </si>
+  <si>
+    <t>77900</t>
+  </si>
+  <si>
+    <t>77918</t>
+  </si>
+  <si>
+    <t>78655</t>
+  </si>
+  <si>
+    <t>79042</t>
+  </si>
+  <si>
+    <t>79047</t>
+  </si>
+  <si>
+    <t>79834</t>
+  </si>
+  <si>
+    <t>79853</t>
+  </si>
+  <si>
+    <t>80522</t>
+  </si>
+  <si>
+    <t>92717</t>
+  </si>
+  <si>
+    <t>93085</t>
+  </si>
+  <si>
+    <t>94999</t>
+  </si>
+  <si>
+    <t>95338</t>
+  </si>
+  <si>
+    <t>96786</t>
+  </si>
+  <si>
+    <t>97410</t>
+  </si>
+  <si>
+    <t>143174</t>
+  </si>
+  <si>
+    <t>38864</t>
+  </si>
+  <si>
+    <t>48132</t>
+  </si>
+  <si>
+    <t>48133</t>
+  </si>
+  <si>
+    <t>106166</t>
   </si>
 </sst>
 </file>
@@ -1080,1876 +1383,2179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="C4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="D9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="D11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="C12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="D12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="C13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="D14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="C15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="D15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="C16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="C17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="D17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="D18" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="C19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="C20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="E20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="C21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="C24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="D25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="C26" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="E26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="C27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="D27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="D28" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="C29" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="C30" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="D30" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="E30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="D31" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="E31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="C32" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="D32" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="E32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="C33" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="D33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="C34" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="D34" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="E34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="C35" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="D35" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="E35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="C36" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="D36" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="E36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="C37" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="D37" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="E37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>224</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="C38" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="D38" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="E38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>227</v>
+      </c>
+      <c r="B39" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="C39" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="D39" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="E39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="C40" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="D40" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
+      <c r="E40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="C41" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="D41" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="E41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="C42" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="D42" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="E42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="C43" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="D43" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="E43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="C44" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="D44" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
+      <c r="E44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="C45" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="D45" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+      <c r="E45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="C46" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="D46" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="E46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="C47" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="D47" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="E47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="C48" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="D48" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
+      <c r="E48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="C49" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="D49" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="E49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="C50" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="D50" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
+      <c r="E50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="C51" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="D51" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="E51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>171</v>
+      </c>
+      <c r="B52" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="C52" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="D52" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="E52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="C53" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="D53" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+      <c r="E53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="C54" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="D54" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
+      <c r="E54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="C55" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="D55" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="E55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="C56" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="D56" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="E56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="C57" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="D57" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+      <c r="E57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="C58" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="D58" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
+      <c r="E58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="C59" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="D59" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
+      <c r="E59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="C60" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="D60" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="E60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>177</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="C61" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="D61" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
+      <c r="E61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="C62" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="D62" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
+      <c r="E62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="C63" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="D63" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
+      <c r="E63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>180</v>
+      </c>
+      <c r="B64" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="C64" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="D64" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
+      <c r="E64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="C65" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="D65" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
+      <c r="E65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="C66" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="D66" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
+      <c r="E66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="C67" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="D67" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
+      <c r="E67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="C68" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="D68" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
+      <c r="E68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>163</v>
+      </c>
+      <c r="B69" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="C69" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="D69" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
+      <c r="E69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="C70" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="D70" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="E70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B71" s="21" t="s">
+      <c r="C71" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="D71" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
+      <c r="E71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>185</v>
+      </c>
+      <c r="B72" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="C72" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="D72" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
+      <c r="E72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="C73" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="D73" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
+      <c r="E73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="21" t="s">
+      <c r="C74" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="D74" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+      <c r="E74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B75" s="21" t="s">
+      <c r="C75" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="D75" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+      <c r="E75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B76" s="21" t="s">
+      <c r="C76" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="D76" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D76" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>208</v>
+      </c>
+      <c r="B77" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B77" s="21" t="s">
+      <c r="C77" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="D77" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>209</v>
+      </c>
+      <c r="B78" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="C78" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="D78" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="C79" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="D79" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D79" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B80" s="21" t="s">
+      <c r="C80" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="D80" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>210</v>
+      </c>
+      <c r="B81" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="C81" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="D81" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>228</v>
+      </c>
+      <c r="B82" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="C82" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="D82" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B83" s="21" t="s">
+      <c r="C83" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="D83" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D83" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>205</v>
+      </c>
+      <c r="B84" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B84" s="21" t="s">
+      <c r="C84" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="D84" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D84" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B85" s="21" t="s">
+      <c r="C85" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="D85" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D85" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="6" t="s">
+      <c r="E85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>212</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B86" s="21" t="s">
+      <c r="C86" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="D86" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>211</v>
+      </c>
+      <c r="B87" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B87" s="21" t="s">
+      <c r="C87" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="D87" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B88" s="21" t="s">
+      <c r="C88" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="D88" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>233</v>
+      </c>
+      <c r="B89" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B89" s="21" t="s">
+      <c r="C89" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="D89" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>241</v>
+      </c>
+      <c r="B90" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B90" s="21" t="s">
+      <c r="C90" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="D90" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>214</v>
+      </c>
+      <c r="B91" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B91" s="21" t="s">
+      <c r="C91" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="D91" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>218</v>
+      </c>
+      <c r="B92" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="C92" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="D92" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>219</v>
+      </c>
+      <c r="B93" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B93" s="21" t="s">
+      <c r="C93" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="D93" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B94" s="21" t="s">
+      <c r="C94" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="D94" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D94" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>221</v>
+      </c>
+      <c r="B95" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B95" s="21" t="s">
+      <c r="C95" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="D95" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>225</v>
+      </c>
+      <c r="B96" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="C96" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="D96" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E96" s="6" t="s">
+      <c r="E96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>236</v>
+      </c>
+      <c r="B97" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B97" s="21" t="s">
+      <c r="C97" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="D97" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="14" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>248</v>
+      </c>
+      <c r="B98" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="C98" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C98" s="22" t="s">
+      <c r="D98" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="E98" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="F98" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="14" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>249</v>
+      </c>
+      <c r="B99" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B99" s="26" t="s">
+      <c r="C99" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C99" s="22" t="s">
+      <c r="D99" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="E99" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="F99" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>152</v>
+      </c>
+      <c r="B100" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="C100" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C100" s="23" t="s">
+      <c r="D100" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="E100" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="F100" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>156</v>
+      </c>
+      <c r="B101" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B101" s="21" t="s">
+      <c r="C101" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C101" s="23" t="s">
+      <c r="D101" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="E101" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E101" s="6" t="s">
+      <c r="F101" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>161</v>
+      </c>
+      <c r="B102" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B102" s="21" t="s">
+      <c r="C102" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="D102" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="E102" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="F102" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>184</v>
+      </c>
+      <c r="B103" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B103" s="21" t="s">
+      <c r="C103" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C103" s="23" t="s">
+      <c r="D103" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="E103" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E103" s="6" t="s">
+      <c r="F103" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>192</v>
+      </c>
+      <c r="B104" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B104" s="21" t="s">
+      <c r="C104" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C104" s="23" t="s">
+      <c r="D104" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="E104" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="F104" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>197</v>
+      </c>
+      <c r="B105" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B105" s="21" t="s">
+      <c r="C105" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="D105" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="E105" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="F105" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="C106" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="C106" s="23" t="s">
+      <c r="D106" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="E106" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E106" s="6" t="s">
+      <c r="F106" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>189</v>
+      </c>
+      <c r="B107" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="B107" s="21" t="s">
+      <c r="C107" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="D107" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="E107" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E107" s="6" t="s">
+      <c r="F107" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>190</v>
+      </c>
+      <c r="B108" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B108" s="21" t="s">
+      <c r="C108" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="D108" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="E108" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="F108" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>250</v>
+      </c>
+      <c r="B109" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B109" s="24" t="s">
+      <c r="C109" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C109" s="24" t="s">
+      <c r="D109" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="E109" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="F109" s="10" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:F109"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/id_campo.xlsx
+++ b/id_campo.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$109</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="351">
   <si>
     <t>CAMPO</t>
   </si>
@@ -780,6 +780,306 @@
   </si>
   <si>
     <t>106166</t>
+  </si>
+  <si>
+    <t>Abanico</t>
+  </si>
+  <si>
+    <t>Abarco</t>
+  </si>
+  <si>
+    <t>Abejas</t>
+  </si>
+  <si>
+    <t>Aguas Blancas</t>
+  </si>
+  <si>
+    <t>Andina</t>
+  </si>
+  <si>
+    <t>Araguato</t>
+  </si>
+  <si>
+    <t>Barquereña</t>
+  </si>
+  <si>
+    <t>Bayonero</t>
+  </si>
+  <si>
+    <t>Caipal</t>
+  </si>
+  <si>
+    <t>Campo Rico</t>
+  </si>
+  <si>
+    <t>Canaguey</t>
+  </si>
+  <si>
+    <t>Candalay</t>
+  </si>
+  <si>
+    <t>Caño Gandul</t>
+  </si>
+  <si>
+    <t>Caño Garza</t>
+  </si>
+  <si>
+    <t>Caño Garza Este</t>
+  </si>
+  <si>
+    <t>Caño Garza Norte</t>
+  </si>
+  <si>
+    <t>Caño Limon</t>
+  </si>
+  <si>
+    <t>Caño Rondon</t>
+  </si>
+  <si>
+    <t>Caño Yarumal</t>
+  </si>
+  <si>
+    <t>Capachos</t>
+  </si>
+  <si>
+    <t>Caracara Sur A</t>
+  </si>
+  <si>
+    <t>Caracara Sur B Y C</t>
+  </si>
+  <si>
+    <t>Caricare</t>
+  </si>
+  <si>
+    <t>Centauro Sur</t>
+  </si>
+  <si>
+    <t>Chaparrito</t>
+  </si>
+  <si>
+    <t>Chipiron</t>
+  </si>
+  <si>
+    <t>Cira</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Corazon</t>
+  </si>
+  <si>
+    <t>Corazon West</t>
+  </si>
+  <si>
+    <t>Coren</t>
+  </si>
+  <si>
+    <t>Corocora</t>
+  </si>
+  <si>
+    <t>Corocora Sur</t>
+  </si>
+  <si>
+    <t>Cravo Este</t>
+  </si>
+  <si>
+    <t>Elizita</t>
+  </si>
+  <si>
+    <t>Galembo</t>
+  </si>
+  <si>
+    <t>Girasol</t>
+  </si>
+  <si>
+    <t>Golondrina</t>
+  </si>
+  <si>
+    <t>Guaduas</t>
+  </si>
+  <si>
+    <t>Guanapalo</t>
+  </si>
+  <si>
+    <t>Guando</t>
+  </si>
+  <si>
+    <t>Guando South West</t>
+  </si>
+  <si>
+    <t>Guarilaque</t>
+  </si>
+  <si>
+    <t>Guasar</t>
+  </si>
+  <si>
+    <t>Guayuyaco</t>
+  </si>
+  <si>
+    <t>Infantas</t>
+  </si>
+  <si>
+    <t>Jazmin</t>
+  </si>
+  <si>
+    <t>Jiba Unificado</t>
+  </si>
+  <si>
+    <t>Jorcan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Juanambu</t>
+  </si>
+  <si>
+    <t>La Flora</t>
+  </si>
+  <si>
+    <t>La Gloria</t>
+  </si>
+  <si>
+    <t>La Gloria Norte</t>
+  </si>
+  <si>
+    <t>La Salina</t>
+  </si>
+  <si>
+    <t>Lilia</t>
+  </si>
+  <si>
+    <t>Los Aceites</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Macana</t>
+  </si>
+  <si>
+    <t>Morichal</t>
+  </si>
+  <si>
+    <t>Moriche</t>
+  </si>
+  <si>
+    <t>Morrocoy</t>
+  </si>
+  <si>
+    <t>Nare Sur</t>
+  </si>
+  <si>
+    <t>Opon</t>
+  </si>
+  <si>
+    <t>Palagua</t>
+  </si>
+  <si>
+    <t>Palmarito</t>
+  </si>
+  <si>
+    <t>Paravare</t>
+  </si>
+  <si>
+    <t>Payoa</t>
+  </si>
+  <si>
+    <t>Payoa West</t>
+  </si>
+  <si>
+    <t>Peguita</t>
+  </si>
+  <si>
+    <t>Peguita Ii</t>
+  </si>
+  <si>
+    <t>Peguita Iii</t>
+  </si>
+  <si>
+    <t>Peguita South West</t>
+  </si>
+  <si>
+    <t>Pirito</t>
+  </si>
+  <si>
+    <t>Primavera</t>
+  </si>
+  <si>
+    <t>Querubin</t>
+  </si>
+  <si>
+    <t>Rancho Quemado</t>
+  </si>
+  <si>
+    <t>Redondo</t>
+  </si>
+  <si>
+    <t>Redondo Este</t>
+  </si>
+  <si>
+    <t>Remache Norte</t>
+  </si>
+  <si>
+    <t>Remache Sur</t>
+  </si>
+  <si>
+    <t>Rex</t>
+  </si>
+  <si>
+    <t>Rex Noreste</t>
+  </si>
+  <si>
+    <t>Sardinas</t>
+  </si>
+  <si>
+    <t>Sirenas</t>
+  </si>
+  <si>
+    <t>Teca-Cocorna</t>
+  </si>
+  <si>
+    <t>Terecay</t>
+  </si>
+  <si>
+    <t>Tierra Blanca</t>
+  </si>
+  <si>
+    <t>Tocaria</t>
+  </si>
+  <si>
+    <t>Tonina</t>
+  </si>
+  <si>
+    <t>Toro Sentado</t>
+  </si>
+  <si>
+    <t>Toro Sentado West</t>
+  </si>
+  <si>
+    <t>Toros</t>
+  </si>
+  <si>
+    <t>Totumal</t>
+  </si>
+  <si>
+    <t>Tronos</t>
+  </si>
+  <si>
+    <t>Underriver</t>
+  </si>
+  <si>
+    <t>Unuma</t>
+  </si>
+  <si>
+    <t>Vigia</t>
+  </si>
+  <si>
+    <t>Vigia Sur</t>
+  </si>
+  <si>
+    <t>id_campo_vas</t>
   </si>
 </sst>
 </file>
@@ -838,7 +1138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -994,11 +1294,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1101,6 +1414,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1383,2179 +1700,2491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F109"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>150</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>222</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>157</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>201</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>186</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>153</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>154</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>155</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>195</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="E10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>196</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="E11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="E12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="E13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>215</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="E14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>216</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="E15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>217</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="E16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>232</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="E17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>238</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="E18" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>247</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="E19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>206</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="E20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>199</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="D22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="E22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>239</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="E23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>237</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="27" t="s">
+        <v>325</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>226</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="E25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>234</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="D26" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="E26" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>162</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="E27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>200</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="E28" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="27"/>
+      <c r="D29" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="E29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>213</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="E30" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>204</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="E31" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>202</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="E32" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="27"/>
+      <c r="D33" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="E33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>207</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="E34" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>230</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="E35" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>229</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="27" t="s">
+        <v>322</v>
+      </c>
+      <c r="D36" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="E36" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>223</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="E37" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>224</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="27" t="s">
+        <v>320</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="E38" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>227</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="E39" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>235</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="E40" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>242</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="E41" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>243</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="D42" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="E42" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>244</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="E43" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>245</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="E44" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>164</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="E45" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>165</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="E46" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>166</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="D47" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="E47" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>167</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="E48" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>168</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="E49" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>169</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="D50" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="E50" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>170</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="D51" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="E51" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>171</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="D52" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="E52" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>172</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="D53" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="E53" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>183</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="D54" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="E54" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>182</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="E55" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>173</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="D56" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="E56" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>160</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="D57" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="E57" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>174</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="D58" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="E58" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>175</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="E59" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>176</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="D60" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="E60" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>177</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="D61" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="E61" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>178</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="D62" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="E62" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>179</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="D63" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="E63" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E63" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F63" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>180</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="D64" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="E64" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>181</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="D65" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="E65" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>191</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="D66" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="E66" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>194</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="D67" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="E67" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>198</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="D68" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="E68" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>163</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="D69" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="E69" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>159</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="D70" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="E70" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>151</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="D71" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="E71" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>185</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D72" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="E72" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>187</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="D73" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="E73" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>188</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="D74" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="E74" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>193</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="D75" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="E75" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>203</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="D76" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="E76" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>208</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="D77" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="E77" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F77" s="6" t="s">
+      <c r="F77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>209</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="D78" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="E78" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E78" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B79" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="27"/>
+      <c r="D79" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D79" s="21" t="s">
+      <c r="E79" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="27"/>
+      <c r="D80" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D80" s="21" t="s">
+      <c r="E80" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>210</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="D81" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D81" s="21" t="s">
+      <c r="E81" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="6" t="s">
+      <c r="F81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>228</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="D82" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="E82" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E82" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" s="6" t="s">
+      <c r="F82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>240</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="D83" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="E83" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>205</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="D84" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D84" s="21" t="s">
+      <c r="E84" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>246</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="E85" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E85" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" s="6" t="s">
+      <c r="F85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>212</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="D86" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="E86" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E86" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" s="6" t="s">
+      <c r="F86" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>211</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="D87" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D87" s="21" t="s">
+      <c r="E87" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" s="6" t="s">
+      <c r="F87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>231</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="D88" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="E88" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>233</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="D89" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="E89" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" s="6" t="s">
+      <c r="F89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G89" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>241</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="D90" s="21" t="s">
+      <c r="E90" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G90" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>214</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="D91" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="E91" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E91" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G91" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>218</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="D92" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="E92" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E92" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G92" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>219</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D93" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D93" s="21" t="s">
+      <c r="E93" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E93" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G93" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>220</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="D94" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="E94" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E94" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F94" s="6" t="s">
+      <c r="F94" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>221</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="D95" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="E95" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E95" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" s="6" t="s">
+      <c r="F95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G95" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>225</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="D96" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="E96" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E96" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" s="6" t="s">
+      <c r="F96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>236</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="D97" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="D97" s="21" t="s">
+      <c r="E97" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E97" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>248</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C98" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="D98" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D98" s="22" t="s">
+      <c r="E98" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="F98" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="G98" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>249</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="C99" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="D99" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="D99" s="22" t="s">
+      <c r="E99" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="F99" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="G99" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>152</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D100" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D100" s="23" t="s">
+      <c r="E100" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="F100" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="G100" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>156</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="D101" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D101" s="23" t="s">
+      <c r="E101" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="F101" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="G101" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>161</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="D102" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D102" s="23" t="s">
+      <c r="E102" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="F102" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="G102" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>184</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="D103" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D103" s="23" t="s">
+      <c r="E103" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="F103" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="G103" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>192</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="D104" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D104" s="23" t="s">
+      <c r="E104" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="F104" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="G104" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>197</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="D105" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D105" s="23" t="s">
+      <c r="E105" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="F105" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="G105" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B106" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="C106" s="27"/>
+      <c r="D106" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D106" s="23" t="s">
+      <c r="E106" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="F106" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="G106" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>189</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="D107" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D107" s="20" t="s">
+      <c r="E107" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="F107" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="G107" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>190</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D108" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D108" s="20" t="s">
+      <c r="E108" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="F108" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="G108" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>250</v>
       </c>
       <c r="B109" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C109" s="24" t="s">
+      <c r="C109" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="D109" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="D109" s="24" t="s">
+      <c r="E109" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="F109" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="F109" s="10" t="s">
+      <c r="G109" s="10" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F109"/>
+  <autoFilter ref="A1:G109"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/id_campo.xlsx
+++ b/id_campo.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$G$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$H$109</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="354">
   <si>
     <t>CAMPO</t>
   </si>
@@ -1080,6 +1080,15 @@
   </si>
   <si>
     <t>id_campo_vas</t>
+  </si>
+  <si>
+    <t>id_campo_if</t>
+  </si>
+  <si>
+    <t>NARE SUR</t>
+  </si>
+  <si>
+    <t>FINN</t>
   </si>
 </sst>
 </file>
@@ -1700,23 +1709,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="35.42578125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>150</v>
       </c>
@@ -1724,22 +1733,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -1747,22 +1759,25 @@
         <v>4</v>
       </c>
       <c r="C2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -1770,22 +1785,25 @@
         <v>8</v>
       </c>
       <c r="C3" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -1793,22 +1811,25 @@
         <v>11</v>
       </c>
       <c r="C4" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>186</v>
       </c>
@@ -1816,22 +1837,25 @@
         <v>12</v>
       </c>
       <c r="C5" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>291</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="E5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="F5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -1839,22 +1863,25 @@
         <v>15</v>
       </c>
       <c r="C6" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -1862,22 +1889,25 @@
         <v>16</v>
       </c>
       <c r="C7" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>348</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -1885,40 +1915,44 @@
         <v>19</v>
       </c>
       <c r="C8" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="27"/>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="F9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>195</v>
       </c>
@@ -1926,22 +1960,25 @@
         <v>17</v>
       </c>
       <c r="C10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="F10" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>196</v>
       </c>
@@ -1949,22 +1986,25 @@
         <v>21</v>
       </c>
       <c r="C11" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="F11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>158</v>
       </c>
@@ -1972,40 +2012,44 @@
         <v>22</v>
       </c>
       <c r="C12" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="E12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="F12" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="27"/>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>215</v>
       </c>
@@ -2013,22 +2057,25 @@
         <v>24</v>
       </c>
       <c r="C14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="F14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>216</v>
       </c>
@@ -2036,22 +2083,25 @@
         <v>28</v>
       </c>
       <c r="C15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="E15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="F15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>217</v>
       </c>
@@ -2059,22 +2109,25 @@
         <v>29</v>
       </c>
       <c r="C16" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="E16" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="F16" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>232</v>
       </c>
@@ -2082,22 +2135,25 @@
         <v>30</v>
       </c>
       <c r="C17" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="E17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="F17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>238</v>
       </c>
@@ -2105,22 +2161,25 @@
         <v>31</v>
       </c>
       <c r="C18" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="E18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="F18" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>247</v>
       </c>
@@ -2128,22 +2187,25 @@
         <v>32</v>
       </c>
       <c r="C19" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="E19" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>206</v>
       </c>
@@ -2151,40 +2213,44 @@
         <v>34</v>
       </c>
       <c r="C20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="E20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="F20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="27"/>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="27"/>
+      <c r="E21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="F21" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -2192,22 +2258,25 @@
         <v>37</v>
       </c>
       <c r="C22" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="E22" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="F22" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>239</v>
       </c>
@@ -2215,22 +2284,25 @@
         <v>39</v>
       </c>
       <c r="C23" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="E23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="F23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>237</v>
       </c>
@@ -2238,22 +2310,25 @@
         <v>42</v>
       </c>
       <c r="C24" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="F24" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>226</v>
       </c>
@@ -2261,22 +2336,25 @@
         <v>43</v>
       </c>
       <c r="C25" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="E25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="F25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>234</v>
       </c>
@@ -2284,22 +2362,25 @@
         <v>45</v>
       </c>
       <c r="C26" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="E26" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="F26" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>162</v>
       </c>
@@ -2307,22 +2388,25 @@
         <v>46</v>
       </c>
       <c r="C27" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="E27" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="F27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>200</v>
       </c>
@@ -2330,40 +2414,44 @@
         <v>48</v>
       </c>
       <c r="C28" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="E28" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="F28" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="27"/>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="27"/>
+      <c r="E29" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="F29" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>213</v>
       </c>
@@ -2371,22 +2459,25 @@
         <v>52</v>
       </c>
       <c r="C30" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="E30" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="F30" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>204</v>
       </c>
@@ -2394,22 +2485,25 @@
         <v>54</v>
       </c>
       <c r="C31" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="E31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="F31" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>202</v>
       </c>
@@ -2417,40 +2511,44 @@
         <v>55</v>
       </c>
       <c r="C32" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="E32" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="F32" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="27"/>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="27"/>
+      <c r="E33" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="F33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>207</v>
       </c>
@@ -2458,22 +2556,25 @@
         <v>57</v>
       </c>
       <c r="C34" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="E34" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="F34" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>230</v>
       </c>
@@ -2481,22 +2582,25 @@
         <v>60</v>
       </c>
       <c r="C35" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="E35" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="F35" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>229</v>
       </c>
@@ -2504,22 +2608,25 @@
         <v>61</v>
       </c>
       <c r="C36" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="E36" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="F36" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>223</v>
       </c>
@@ -2527,22 +2634,25 @@
         <v>62</v>
       </c>
       <c r="C37" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="E37" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="F37" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>224</v>
       </c>
@@ -2550,22 +2660,25 @@
         <v>63</v>
       </c>
       <c r="C38" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="E38" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="F38" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>227</v>
       </c>
@@ -2573,22 +2686,25 @@
         <v>64</v>
       </c>
       <c r="C39" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="E39" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="F39" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>235</v>
       </c>
@@ -2596,22 +2712,25 @@
         <v>65</v>
       </c>
       <c r="C40" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="E40" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="F40" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>242</v>
       </c>
@@ -2619,22 +2738,25 @@
         <v>66</v>
       </c>
       <c r="C41" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="E41" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="F41" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>243</v>
       </c>
@@ -2642,22 +2764,25 @@
         <v>67</v>
       </c>
       <c r="C42" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="E42" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="F42" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>244</v>
       </c>
@@ -2665,22 +2790,25 @@
         <v>68</v>
       </c>
       <c r="C43" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="E43" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="F43" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>245</v>
       </c>
@@ -2688,22 +2816,25 @@
         <v>69</v>
       </c>
       <c r="C44" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="27" t="s">
         <v>347</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="E44" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="F44" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -2711,22 +2842,25 @@
         <v>70</v>
       </c>
       <c r="C45" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="D45" s="21" t="s">
+      <c r="E45" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="F45" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>165</v>
       </c>
@@ -2734,22 +2868,25 @@
         <v>72</v>
       </c>
       <c r="C46" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46" s="27" t="s">
         <v>303</v>
       </c>
-      <c r="D46" s="21" t="s">
+      <c r="E46" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="F46" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>166</v>
       </c>
@@ -2757,22 +2894,25 @@
         <v>73</v>
       </c>
       <c r="C47" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="27" t="s">
         <v>302</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="E47" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="F47" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>167</v>
       </c>
@@ -2780,22 +2920,25 @@
         <v>74</v>
       </c>
       <c r="C48" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="E48" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="F48" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -2803,22 +2946,25 @@
         <v>75</v>
       </c>
       <c r="C49" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="E49" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="F49" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>169</v>
       </c>
@@ -2826,22 +2972,25 @@
         <v>76</v>
       </c>
       <c r="C50" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D50" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="E50" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="F50" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>170</v>
       </c>
@@ -2849,22 +2998,25 @@
         <v>77</v>
       </c>
       <c r="C51" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="E51" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="F51" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>171</v>
       </c>
@@ -2872,22 +3024,25 @@
         <v>78</v>
       </c>
       <c r="C52" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="E52" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="F52" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -2895,22 +3050,25 @@
         <v>79</v>
       </c>
       <c r="C53" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="E53" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="F53" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>183</v>
       </c>
@@ -2918,22 +3076,25 @@
         <v>80</v>
       </c>
       <c r="C54" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="E54" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="F54" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>182</v>
       </c>
@@ -2941,22 +3102,25 @@
         <v>81</v>
       </c>
       <c r="C55" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="E55" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="F55" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>173</v>
       </c>
@@ -2964,22 +3128,25 @@
         <v>82</v>
       </c>
       <c r="C56" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="E56" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="20" t="s">
+      <c r="F56" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -2987,22 +3154,25 @@
         <v>84</v>
       </c>
       <c r="C57" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D57" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="E57" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="F57" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>174</v>
       </c>
@@ -3010,22 +3180,25 @@
         <v>85</v>
       </c>
       <c r="C58" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="D58" s="21" t="s">
+      <c r="E58" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E58" s="20" t="s">
+      <c r="F58" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>175</v>
       </c>
@@ -3033,22 +3206,25 @@
         <v>86</v>
       </c>
       <c r="C59" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="E59" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="F59" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>176</v>
       </c>
@@ -3056,22 +3232,25 @@
         <v>87</v>
       </c>
       <c r="C60" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="E60" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E60" s="20" t="s">
+      <c r="F60" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>177</v>
       </c>
@@ -3079,22 +3258,25 @@
         <v>89</v>
       </c>
       <c r="C61" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="D61" s="21" t="s">
+      <c r="E61" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="20" t="s">
+      <c r="F61" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>178</v>
       </c>
@@ -3102,22 +3284,25 @@
         <v>90</v>
       </c>
       <c r="C62" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="27" t="s">
         <v>317</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="E62" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E62" s="20" t="s">
+      <c r="F62" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F62" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>179</v>
       </c>
@@ -3125,22 +3310,25 @@
         <v>91</v>
       </c>
       <c r="C63" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="E63" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E63" s="20" t="s">
+      <c r="F63" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>180</v>
       </c>
@@ -3148,22 +3336,25 @@
         <v>92</v>
       </c>
       <c r="C64" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D64" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="E64" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E64" s="20" t="s">
+      <c r="F64" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>181</v>
       </c>
@@ -3171,22 +3362,25 @@
         <v>93</v>
       </c>
       <c r="C65" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D65" s="21" t="s">
+      <c r="E65" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="20" t="s">
+      <c r="F65" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>191</v>
       </c>
@@ -3194,22 +3388,25 @@
         <v>94</v>
       </c>
       <c r="C66" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="E66" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="F66" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>194</v>
       </c>
@@ -3217,22 +3414,25 @@
         <v>95</v>
       </c>
       <c r="C67" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="E67" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E67" s="20" t="s">
+      <c r="F67" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>198</v>
       </c>
@@ -3240,22 +3440,25 @@
         <v>96</v>
       </c>
       <c r="C68" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="E68" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="E68" s="20" t="s">
+      <c r="F68" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>163</v>
       </c>
@@ -3263,22 +3466,25 @@
         <v>97</v>
       </c>
       <c r="C69" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="E69" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="E69" s="20" t="s">
+      <c r="F69" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>159</v>
       </c>
@@ -3286,22 +3492,25 @@
         <v>99</v>
       </c>
       <c r="C70" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D70" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="D70" s="21" t="s">
+      <c r="E70" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E70" s="20" t="s">
+      <c r="F70" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>151</v>
       </c>
@@ -3309,22 +3518,25 @@
         <v>101</v>
       </c>
       <c r="C71" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="D71" s="21" t="s">
+      <c r="E71" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E71" s="20" t="s">
+      <c r="F71" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>185</v>
       </c>
@@ -3332,22 +3544,25 @@
         <v>102</v>
       </c>
       <c r="C72" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" s="27" t="s">
         <v>263</v>
       </c>
-      <c r="D72" s="21" t="s">
+      <c r="E72" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E72" s="20" t="s">
+      <c r="F72" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>187</v>
       </c>
@@ -3355,22 +3570,25 @@
         <v>100</v>
       </c>
       <c r="C73" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="D73" s="21" t="s">
+      <c r="E73" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E73" s="20" t="s">
+      <c r="F73" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>188</v>
       </c>
@@ -3378,22 +3596,25 @@
         <v>103</v>
       </c>
       <c r="C74" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="27" t="s">
         <v>331</v>
       </c>
-      <c r="D74" s="21" t="s">
+      <c r="E74" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E74" s="20" t="s">
+      <c r="F74" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>193</v>
       </c>
@@ -3401,22 +3622,25 @@
         <v>104</v>
       </c>
       <c r="C75" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="D75" s="21" t="s">
+      <c r="E75" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="E75" s="20" t="s">
+      <c r="F75" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="F75" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>203</v>
       </c>
@@ -3424,22 +3648,25 @@
         <v>105</v>
       </c>
       <c r="C76" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D76" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="D76" s="21" t="s">
+      <c r="E76" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E76" s="21" t="s">
+      <c r="F76" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H76" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>208</v>
       </c>
@@ -3447,22 +3674,25 @@
         <v>107</v>
       </c>
       <c r="C77" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="E77" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E77" s="21" t="s">
+      <c r="F77" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>209</v>
       </c>
@@ -3470,58 +3700,63 @@
         <v>108</v>
       </c>
       <c r="C78" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="D78" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="D78" s="21" t="s">
+      <c r="E78" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E78" s="21" t="s">
+      <c r="F78" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" s="6" t="s">
+      <c r="G78" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H78" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B79" s="13" t="s">
         <v>109</v>
       </c>
       <c r="C79" s="27"/>
-      <c r="D79" s="21" t="s">
+      <c r="D79" s="27"/>
+      <c r="E79" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E79" s="21" t="s">
+      <c r="F79" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" s="6" t="s">
+      <c r="G79" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B80" s="13" t="s">
         <v>110</v>
       </c>
       <c r="C80" s="27"/>
-      <c r="D80" s="21" t="s">
+      <c r="D80" s="27"/>
+      <c r="E80" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E80" s="21" t="s">
+      <c r="F80" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F80" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" s="6" t="s">
+      <c r="G80" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>210</v>
       </c>
@@ -3529,22 +3764,25 @@
         <v>111</v>
       </c>
       <c r="C81" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="D81" s="21" t="s">
+      <c r="E81" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E81" s="21" t="s">
+      <c r="F81" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" s="6" t="s">
+      <c r="G81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H81" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>228</v>
       </c>
@@ -3552,22 +3790,25 @@
         <v>112</v>
       </c>
       <c r="C82" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D82" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="D82" s="21" t="s">
+      <c r="E82" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E82" s="21" t="s">
+      <c r="F82" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F82" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" s="6" t="s">
+      <c r="G82" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H82" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>240</v>
       </c>
@@ -3575,22 +3816,25 @@
         <v>113</v>
       </c>
       <c r="C83" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="D83" s="21" t="s">
+      <c r="E83" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="F83" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F83" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G83" s="6" t="s">
+      <c r="G83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>205</v>
       </c>
@@ -3598,22 +3842,25 @@
         <v>114</v>
       </c>
       <c r="C84" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="D84" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="D84" s="21" t="s">
+      <c r="E84" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="F84" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F84" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G84" s="6" t="s">
+      <c r="G84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H84" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>246</v>
       </c>
@@ -3621,22 +3868,25 @@
         <v>116</v>
       </c>
       <c r="C85" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="D85" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D85" s="21" t="s">
+      <c r="E85" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E85" s="21" t="s">
+      <c r="F85" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F85" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G85" s="6" t="s">
+      <c r="G85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H85" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>212</v>
       </c>
@@ -3644,22 +3894,25 @@
         <v>117</v>
       </c>
       <c r="C86" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D86" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="D86" s="21" t="s">
+      <c r="E86" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E86" s="21" t="s">
+      <c r="F86" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F86" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H86" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>211</v>
       </c>
@@ -3667,22 +3920,25 @@
         <v>118</v>
       </c>
       <c r="C87" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="D87" s="21" t="s">
+      <c r="E87" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E87" s="21" t="s">
+      <c r="F87" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F87" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G87" s="6" t="s">
+      <c r="G87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H87" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>231</v>
       </c>
@@ -3690,22 +3946,25 @@
         <v>119</v>
       </c>
       <c r="C88" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D88" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="D88" s="21" t="s">
+      <c r="E88" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E88" s="21" t="s">
+      <c r="F88" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F88" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G88" s="6" t="s">
+      <c r="G88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>233</v>
       </c>
@@ -3713,22 +3972,25 @@
         <v>120</v>
       </c>
       <c r="C89" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="D89" s="21" t="s">
+      <c r="E89" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E89" s="21" t="s">
+      <c r="F89" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89" s="6" t="s">
+      <c r="G89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>241</v>
       </c>
@@ -3736,22 +3998,25 @@
         <v>121</v>
       </c>
       <c r="C90" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D90" s="21" t="s">
+      <c r="E90" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E90" s="21" t="s">
+      <c r="F90" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H90" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>214</v>
       </c>
@@ -3759,22 +4024,25 @@
         <v>149</v>
       </c>
       <c r="C91" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D91" s="27" t="s">
         <v>267</v>
       </c>
-      <c r="D91" s="21" t="s">
+      <c r="E91" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="E91" s="21" t="s">
+      <c r="F91" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F91" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G91" s="6" t="s">
+      <c r="G91" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H91" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>218</v>
       </c>
@@ -3782,22 +4050,25 @@
         <v>123</v>
       </c>
       <c r="C92" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="D92" s="21" t="s">
+      <c r="E92" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="E92" s="21" t="s">
+      <c r="F92" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F92" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G92" s="6" t="s">
+      <c r="G92" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H92" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>219</v>
       </c>
@@ -3805,22 +4076,25 @@
         <v>124</v>
       </c>
       <c r="C93" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D93" s="27" t="s">
         <v>269</v>
       </c>
-      <c r="D93" s="21" t="s">
+      <c r="E93" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="E93" s="21" t="s">
+      <c r="F93" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F93" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G93" s="6" t="s">
+      <c r="G93" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H93" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>220</v>
       </c>
@@ -3828,22 +4102,25 @@
         <v>125</v>
       </c>
       <c r="C94" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D94" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="D94" s="21" t="s">
+      <c r="E94" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="E94" s="21" t="s">
+      <c r="F94" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G94" s="6" t="s">
+      <c r="G94" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H94" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>221</v>
       </c>
@@ -3851,22 +4128,25 @@
         <v>126</v>
       </c>
       <c r="C95" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D95" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="D95" s="21" t="s">
+      <c r="E95" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="F95" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H95" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>225</v>
       </c>
@@ -3874,22 +4154,25 @@
         <v>127</v>
       </c>
       <c r="C96" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="D96" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="D96" s="21" t="s">
+      <c r="E96" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E96" s="21" t="s">
+      <c r="F96" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F96" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G96" s="6" t="s">
+      <c r="G96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H96" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>236</v>
       </c>
@@ -3897,22 +4180,25 @@
         <v>128</v>
       </c>
       <c r="C97" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D97" s="27" t="s">
         <v>268</v>
       </c>
-      <c r="D97" s="21" t="s">
+      <c r="E97" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E97" s="21" t="s">
+      <c r="F97" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F97" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G97" s="6" t="s">
+      <c r="G97" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H97" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>248</v>
       </c>
@@ -3920,22 +4206,25 @@
         <v>129</v>
       </c>
       <c r="C98" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D98" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="D98" s="26" t="s">
+      <c r="E98" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="E98" s="22" t="s">
+      <c r="F98" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="G98" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G98" s="8" t="s">
+      <c r="H98" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>249</v>
       </c>
@@ -3943,22 +4232,25 @@
         <v>132</v>
       </c>
       <c r="C99" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D99" s="26" t="s">
+      <c r="E99" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="E99" s="22" t="s">
+      <c r="F99" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="G99" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="H99" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>152</v>
       </c>
@@ -3966,22 +4258,25 @@
         <v>133</v>
       </c>
       <c r="C100" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D100" s="27" t="s">
         <v>252</v>
       </c>
-      <c r="D100" s="21" t="s">
+      <c r="E100" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E100" s="23" t="s">
+      <c r="F100" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="G100" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G100" s="6" t="s">
+      <c r="H100" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>156</v>
       </c>
@@ -3989,22 +4284,25 @@
         <v>137</v>
       </c>
       <c r="C101" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D101" s="27" t="s">
         <v>311</v>
       </c>
-      <c r="D101" s="21" t="s">
+      <c r="E101" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E101" s="23" t="s">
+      <c r="F101" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="G101" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="H101" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>161</v>
       </c>
@@ -4012,22 +4310,25 @@
         <v>134</v>
       </c>
       <c r="C102" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="D102" s="27" t="s">
         <v>313</v>
       </c>
-      <c r="D102" s="21" t="s">
+      <c r="E102" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E102" s="23" t="s">
+      <c r="F102" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="G102" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="H102" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>184</v>
       </c>
@@ -4035,22 +4336,25 @@
         <v>138</v>
       </c>
       <c r="C103" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="D103" s="21" t="s">
+      <c r="E103" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E103" s="23" t="s">
+      <c r="F103" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="G103" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G103" s="6" t="s">
+      <c r="H103" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>192</v>
       </c>
@@ -4058,22 +4362,25 @@
         <v>139</v>
       </c>
       <c r="C104" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D104" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="D104" s="21" t="s">
+      <c r="E104" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E104" s="23" t="s">
+      <c r="F104" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="G104" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G104" s="6" t="s">
+      <c r="H104" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>197</v>
       </c>
@@ -4081,40 +4388,44 @@
         <v>140</v>
       </c>
       <c r="C105" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D105" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="D105" s="21" t="s">
+      <c r="E105" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E105" s="23" t="s">
+      <c r="F105" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="G105" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G105" s="6" t="s">
+      <c r="H105" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B106" s="13" t="s">
         <v>141</v>
       </c>
       <c r="C106" s="27"/>
-      <c r="D106" s="21" t="s">
+      <c r="D106" s="27"/>
+      <c r="E106" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E106" s="23" t="s">
+      <c r="F106" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="G106" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G106" s="6" t="s">
+      <c r="H106" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>189</v>
       </c>
@@ -4122,22 +4433,25 @@
         <v>142</v>
       </c>
       <c r="C107" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D107" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="D107" s="21" t="s">
+      <c r="E107" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E107" s="20" t="s">
+      <c r="F107" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="G107" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G107" s="6" t="s">
+      <c r="H107" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>190</v>
       </c>
@@ -4145,22 +4459,25 @@
         <v>145</v>
       </c>
       <c r="C108" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D108" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="D108" s="21" t="s">
+      <c r="E108" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E108" s="20" t="s">
+      <c r="F108" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="G108" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G108" s="6" t="s">
+      <c r="H108" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>250</v>
       </c>
@@ -4168,23 +4485,26 @@
         <v>146</v>
       </c>
       <c r="C109" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D109" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="D109" s="24" t="s">
+      <c r="E109" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="E109" s="24" t="s">
+      <c r="F109" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="G109" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G109" s="10" t="s">
+      <c r="H109" s="10" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G109"/>
+  <autoFilter ref="A1:H109"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>